--- a/aed_dose_modeling/DATA/AED_metadata.xlsx
+++ b/aed_dose_modeling/DATA/AED_metadata.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/borel.seas.upenn.edu/public/USERS/nghosn3/Pioneer/DATA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninaghosn/Documents/Litt_Lab/projects/Pioneer/AED-taper-networks/aed_dose_modeling/DATA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A73CCA-1127-BF42-9953-5CC2AC46F8C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAFBFB0-F0C7-154E-9164-C6E4008BC0A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11260" yWindow="500" windowWidth="11460" windowHeight="20340" xr2:uid="{0398A56F-D101-B74F-AD4D-E4BB27792D99}"/>
+    <workbookView xWindow="11260" yWindow="500" windowWidth="22880" windowHeight="20100" activeTab="1" xr2:uid="{0398A56F-D101-B74F-AD4D-E4BB27792D99}"/>
   </bookViews>
   <sheets>
     <sheet name="for_matlab" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="7" r:id="rId4"/>
-    <sheet name="all_params" sheetId="1" r:id="rId5"/>
-    <sheet name="halfLife_table" sheetId="4" r:id="rId6"/>
-    <sheet name="interactions" sheetId="2" r:id="rId7"/>
+    <sheet name="refRanges" sheetId="8" r:id="rId2"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId5"/>
+    <sheet name="all_params" sheetId="1" r:id="rId6"/>
+    <sheet name="halfLife_table" sheetId="4" r:id="rId7"/>
+    <sheet name="interactions" sheetId="2" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="210">
   <si>
     <t xml:space="preserve">medication </t>
   </si>
@@ -622,13 +623,61 @@
   </si>
   <si>
     <t>min_dose_freq</t>
+  </si>
+  <si>
+    <t>Drug</t>
+  </si>
+  <si>
+    <t>Levetiracetam</t>
+  </si>
+  <si>
+    <t>mg/L</t>
+  </si>
+  <si>
+    <t>ug/mL</t>
+  </si>
+  <si>
+    <t>Clobazam</t>
+  </si>
+  <si>
+    <t>ng/mL</t>
+  </si>
+  <si>
+    <t>N-Desmethylclobazam</t>
+  </si>
+  <si>
+    <t>Topiramate</t>
+  </si>
+  <si>
+    <t>Lacosamide</t>
+  </si>
+  <si>
+    <t>Felbamate</t>
+  </si>
+  <si>
+    <t>Lamotrigine</t>
+  </si>
+  <si>
+    <t>Phenytoin</t>
+  </si>
+  <si>
+    <t>ref_range_max</t>
+  </si>
+  <si>
+    <t>units</t>
+  </si>
+  <si>
+    <t>ref_range_min</t>
+  </si>
+  <si>
+    <t>Valproic acid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -672,6 +721,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -706,7 +761,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -763,6 +818,7 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1129,8 +1185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BE88B52-A074-7B43-B4AD-7874EF7178AB}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="I1" zoomScale="118" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1670,9 +1726,6 @@
         <f t="shared" ref="K16:K20" si="2">J16/100</f>
         <v>1</v>
       </c>
-      <c r="L16" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -1806,6 +1859,234 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D019CC7A-89AB-114F-8E7E-D038D47793CF}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" s="34">
+        <v>12</v>
+      </c>
+      <c r="C2" s="34">
+        <v>46</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="34">
+        <v>4</v>
+      </c>
+      <c r="C3" s="34">
+        <v>10</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="34">
+        <v>3</v>
+      </c>
+      <c r="C4" s="34">
+        <v>35</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="B5" s="34">
+        <v>30</v>
+      </c>
+      <c r="C5" s="34">
+        <v>300</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6" s="34">
+        <v>300</v>
+      </c>
+      <c r="C6" s="34">
+        <v>3000</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="B7" s="34">
+        <v>5</v>
+      </c>
+      <c r="C7" s="34">
+        <v>20</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="B8" s="34">
+        <v>50</v>
+      </c>
+      <c r="C8" s="34">
+        <v>125</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="B9" s="34">
+        <v>1</v>
+      </c>
+      <c r="C9" s="34">
+        <v>10</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="B10" s="34">
+        <v>30</v>
+      </c>
+      <c r="C10" s="34">
+        <v>60</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="B11" s="34">
+        <v>2.5</v>
+      </c>
+      <c r="C11" s="34">
+        <v>15</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="34">
+        <v>20</v>
+      </c>
+      <c r="C12" s="34">
+        <v>70</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="34">
+        <v>10</v>
+      </c>
+      <c r="C13" s="34">
+        <v>40</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="34">
+        <v>2</v>
+      </c>
+      <c r="C14" s="34">
+        <v>10</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="B15" s="34">
+        <v>10</v>
+      </c>
+      <c r="C15" s="34">
+        <v>20</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D12FB6A1-B1B3-644E-8E44-F90AC620DF78}">
   <dimension ref="A1:E15"/>
   <sheetViews>
@@ -2044,7 +2325,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D46B28-A5A3-C745-806F-BB84ED2B99E0}">
   <dimension ref="A1:C14"/>
   <sheetViews>
@@ -2223,7 +2504,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C0EA0D1-CCA0-9742-A367-85557673A049}">
   <dimension ref="A1:B20"/>
   <sheetViews>
@@ -2404,7 +2685,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71043834-4957-F54F-A719-592EA0AAF59E}">
   <dimension ref="A1:N21"/>
   <sheetViews>
@@ -2982,7 +3263,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60A866AB-4D1F-C947-9718-923F92C362FE}">
   <dimension ref="A1:C19"/>
   <sheetViews>
@@ -3156,7 +3437,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D58DA5A9-4D65-1E45-A310-F6BA0DD442DC}">
   <dimension ref="A1:B7"/>
   <sheetViews>

--- a/aed_dose_modeling/DATA/AED_metadata.xlsx
+++ b/aed_dose_modeling/DATA/AED_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninaghosn/Documents/Litt_Lab/projects/Pioneer/AED-taper-networks/aed_dose_modeling/DATA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAFBFB0-F0C7-154E-9164-C6E4008BC0A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7613749E-2317-1F4E-922F-9EC28D397D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11260" yWindow="500" windowWidth="22880" windowHeight="20100" activeTab="1" xr2:uid="{0398A56F-D101-B74F-AD4D-E4BB27792D99}"/>
+    <workbookView xWindow="16660" yWindow="2940" windowWidth="22880" windowHeight="20100" xr2:uid="{0398A56F-D101-B74F-AD4D-E4BB27792D99}"/>
   </bookViews>
   <sheets>
     <sheet name="for_matlab" sheetId="3" r:id="rId1"/>
@@ -466,9 +466,6 @@
     <t>ka</t>
   </si>
   <si>
-    <t>4,12</t>
-  </si>
-  <si>
     <t>15,30</t>
   </si>
   <si>
@@ -671,6 +668,9 @@
   </si>
   <si>
     <t>Valproic acid</t>
+  </si>
+  <si>
+    <t>12,17</t>
   </si>
 </sst>
 </file>
@@ -761,32 +761,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -795,28 +784,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -1185,8 +1166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BE88B52-A074-7B43-B4AD-7874EF7178AB}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="118" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1199,44 +1180,44 @@
     <col min="11" max="11" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>178</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="D1" s="20" t="s">
+      <c r="B1" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="21"/>
+      <c r="L1" s="13"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" t="s">
         <v>85</v>
       </c>
       <c r="B2">
@@ -1245,34 +1226,34 @@
       <c r="C2">
         <v>2</v>
       </c>
-      <c r="D2" s="6">
-        <v>8.0108665784075994E-2</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>141</v>
+      <c r="D2">
+        <v>0.31892749999999997</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>209</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2">
         <v>200</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2">
         <v>1.9</v>
       </c>
-      <c r="I2" s="6">
-        <v>12</v>
-      </c>
-      <c r="J2" s="6">
+      <c r="I2">
+        <v>7</v>
+      </c>
+      <c r="J2">
         <v>80</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2">
         <f>J2/100</f>
         <v>0.8</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" t="s">
         <v>74</v>
       </c>
       <c r="B3">
@@ -1281,34 +1262,34 @@
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3">
         <v>3.3881784538817001</v>
       </c>
-      <c r="E3" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="F3" s="11">
+      <c r="E3" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="F3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3">
         <v>100</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3">
         <v>1.7</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3">
         <v>1.4</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3">
         <v>98</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3">
         <f t="shared" ref="K3:K15" si="0">J3/100</f>
         <v>0.98</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" t="s">
         <v>75</v>
       </c>
       <c r="B4">
@@ -1317,34 +1298,34 @@
       <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4">
         <v>0.471480319675884</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="18">
         <v>8.5</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4">
         <v>0.7</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4">
         <v>600</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4">
         <v>2.5</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4">
         <v>4.5</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4">
         <v>90</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4">
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="22" t="s">
+    <row r="5" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
         <v>76</v>
       </c>
       <c r="B5">
@@ -1353,30 +1334,28 @@
       <c r="C5">
         <v>2</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="14">
         <v>3.5972577293013801</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="19">
         <v>6.3</v>
       </c>
       <c r="F5">
         <v>0.5</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="23">
+      <c r="I5" s="14">
         <v>1</v>
       </c>
-      <c r="J5" s="22">
+      <c r="J5" s="14">
         <v>90</v>
       </c>
-      <c r="K5" s="23">
+      <c r="K5" s="14">
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" t="s">
         <v>86</v>
       </c>
       <c r="B6">
@@ -1385,34 +1364,34 @@
       <c r="C6">
         <v>2</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6">
         <v>1.2423550711031099</v>
       </c>
-      <c r="E6" s="29" t="s">
-        <v>143</v>
+      <c r="E6" s="18" t="s">
+        <v>142</v>
       </c>
       <c r="F6">
         <v>0.7</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6">
         <v>400</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6">
         <v>14</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6">
         <v>3</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6">
         <v>85</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6">
         <f t="shared" ref="K6" si="1">J6/100</f>
         <v>0.85</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="A7" t="s">
         <v>77</v>
       </c>
       <c r="B7">
@@ -1421,30 +1400,28 @@
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7">
         <v>2.7472883863592199</v>
       </c>
-      <c r="E7" s="29" t="s">
-        <v>144</v>
+      <c r="E7" s="18" t="s">
+        <v>143</v>
       </c>
       <c r="F7">
         <v>1.45</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6">
+      <c r="I7">
         <v>2</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7">
         <v>100</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="A8" t="s">
         <v>78</v>
       </c>
       <c r="B8">
@@ -1453,30 +1430,28 @@
       <c r="C8">
         <v>2</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8">
         <v>3.7270652133093298</v>
       </c>
-      <c r="E8" s="29" t="s">
-        <v>145</v>
+      <c r="E8" s="18" t="s">
+        <v>144</v>
       </c>
       <c r="F8">
         <v>0.6</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6">
+      <c r="I8">
         <v>1</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8">
         <v>100</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>79</v>
       </c>
       <c r="B9">
@@ -1485,28 +1460,28 @@
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9">
         <v>1.7685528595934401</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="18">
         <v>12</v>
       </c>
       <c r="F9">
         <v>1.3</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9">
         <v>2</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9">
         <v>90</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9">
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>80</v>
       </c>
       <c r="B10">
@@ -1515,28 +1490,28 @@
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10">
         <v>2.3690243664072601</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="18">
         <v>32</v>
       </c>
       <c r="F10">
         <v>1.42</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10">
         <v>2</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10">
         <v>87</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10">
         <f t="shared" si="0"/>
         <v>0.87</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>81</v>
       </c>
       <c r="B11">
@@ -1545,60 +1520,60 @@
       <c r="C11">
         <v>2</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11">
         <v>5.6783207301508698</v>
       </c>
-      <c r="E11" s="29" t="s">
-        <v>146</v>
+      <c r="E11" s="18" t="s">
+        <v>145</v>
       </c>
       <c r="F11">
         <v>3</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11">
         <v>1</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11">
         <v>90</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11">
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="B12" s="7">
+    <row r="12" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B12" s="4">
         <v>250</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="4">
         <v>2</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12">
         <v>0.75923667967299502</v>
       </c>
-      <c r="E12" s="29" t="s">
-        <v>147</v>
+      <c r="E12" s="18" t="s">
+        <v>146</v>
       </c>
       <c r="F12">
         <v>0.2</v>
       </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6">
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12">
         <v>4</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12">
         <v>90</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12">
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>82</v>
       </c>
       <c r="B13">
@@ -1607,30 +1582,30 @@
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13">
         <v>1.13060718710257</v>
       </c>
-      <c r="E13" s="29" t="s">
-        <v>148</v>
+      <c r="E13" s="18" t="s">
+        <v>147</v>
       </c>
       <c r="F13">
         <v>0.87</v>
       </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="6">
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13">
         <v>3</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13">
         <v>90</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13">
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
+      <c r="A14" t="s">
         <v>83</v>
       </c>
       <c r="B14">
@@ -1639,31 +1614,29 @@
       <c r="C14">
         <v>2</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14">
         <v>4.7753493564284302</v>
       </c>
-      <c r="E14" s="29" t="s">
-        <v>149</v>
+      <c r="E14" s="18" t="s">
+        <v>148</v>
       </c>
       <c r="F14">
         <v>0.6</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6">
+      <c r="I14">
         <v>1</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14">
         <v>100</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B15">
         <v>50</v>
@@ -1674,8 +1647,8 @@
       <c r="D15">
         <v>2.2081265436206001</v>
       </c>
-      <c r="E15" s="29" t="s">
-        <v>158</v>
+      <c r="E15" s="18" t="s">
+        <v>157</v>
       </c>
       <c r="F15">
         <v>0.5</v>
@@ -1686,20 +1659,20 @@
       <c r="H15">
         <v>4</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15">
         <v>1.5</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15">
         <v>100</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B16">
         <v>7.5</v>
@@ -1710,26 +1683,26 @@
       <c r="D16">
         <v>6.2131104261505596</v>
       </c>
-      <c r="E16" s="32" t="s">
-        <v>171</v>
+      <c r="E16" s="18" t="s">
+        <v>170</v>
       </c>
       <c r="F16">
         <v>1.5</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16">
         <v>1</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16">
         <v>100</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16">
         <f t="shared" ref="K16:K20" si="2">J16/100</f>
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B17">
         <v>400</v>
@@ -1740,26 +1713,26 @@
       <c r="D17">
         <v>2.1268412898771998</v>
       </c>
-      <c r="E17" s="29" t="s">
-        <v>161</v>
+      <c r="E17" s="18" t="s">
+        <v>160</v>
       </c>
       <c r="F17">
         <v>0.8</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17">
         <v>2</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17">
         <v>90</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K17">
         <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B18">
         <v>300</v>
@@ -1770,8 +1743,8 @@
       <c r="D18">
         <v>1.6957628000598099</v>
       </c>
-      <c r="E18" s="29" t="s">
-        <v>162</v>
+      <c r="E18" s="18" t="s">
+        <v>161</v>
       </c>
       <c r="F18">
         <v>0.8</v>
@@ -1782,17 +1755,17 @@
       <c r="I18">
         <v>1.7</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18">
         <v>60</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18">
         <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B19">
         <v>200</v>
@@ -1803,8 +1776,8 @@
       <c r="D19">
         <v>0.38485825241641702</v>
       </c>
-      <c r="E19" s="29" t="s">
-        <v>173</v>
+      <c r="E19" s="18" t="s">
+        <v>172</v>
       </c>
       <c r="F19">
         <v>0.7</v>
@@ -1812,17 +1785,17 @@
       <c r="I19">
         <v>5</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19">
         <v>85</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K19">
         <f t="shared" si="2"/>
         <v>0.85</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B20">
         <v>100</v>
@@ -1833,7 +1806,7 @@
       <c r="D20">
         <v>2.1408967743375098</v>
       </c>
-      <c r="E20" s="32">
+      <c r="E20" s="18">
         <v>22</v>
       </c>
       <c r="F20">
@@ -1842,10 +1815,10 @@
       <c r="I20">
         <v>2</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20">
         <v>100</v>
       </c>
-      <c r="K20" s="8">
+      <c r="K20">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -1862,7 +1835,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D019CC7A-89AB-114F-8E7E-D038D47793CF}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -1872,213 +1845,213 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B2" s="21">
+        <v>12</v>
+      </c>
+      <c r="C2" s="21">
+        <v>46</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="21">
+        <v>4</v>
+      </c>
+      <c r="C3" s="21">
+        <v>10</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="21">
+        <v>3</v>
+      </c>
+      <c r="C4" s="21">
+        <v>35</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="B5" s="21">
+        <v>30</v>
+      </c>
+      <c r="C5" s="21">
+        <v>300</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6" s="21">
+        <v>300</v>
+      </c>
+      <c r="C6" s="21">
+        <v>3000</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="B7" s="21">
+        <v>5</v>
+      </c>
+      <c r="C7" s="21">
+        <v>20</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="C1" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
+      <c r="B8" s="21">
+        <v>50</v>
+      </c>
+      <c r="C8" s="21">
+        <v>125</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="B9" s="21">
+        <v>1</v>
+      </c>
+      <c r="C9" s="21">
+        <v>10</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="B10" s="21">
+        <v>30</v>
+      </c>
+      <c r="C10" s="21">
+        <v>60</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="B11" s="21">
+        <v>2.5</v>
+      </c>
+      <c r="C11" s="21">
+        <v>15</v>
+      </c>
+      <c r="D11" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="B2" s="34">
-        <v>12</v>
-      </c>
-      <c r="C2" s="34">
-        <v>46</v>
-      </c>
-      <c r="D2" s="34" t="s">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="21">
+        <v>20</v>
+      </c>
+      <c r="C12" s="21">
+        <v>70</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="21">
+        <v>10</v>
+      </c>
+      <c r="C13" s="21">
+        <v>40</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="21">
+        <v>2</v>
+      </c>
+      <c r="C14" s="21">
+        <v>10</v>
+      </c>
+      <c r="D14" s="21" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="B3" s="34">
-        <v>4</v>
-      </c>
-      <c r="C3" s="34">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="B15" s="21">
         <v>10</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="C15" s="21">
+        <v>20</v>
+      </c>
+      <c r="D15" s="21" t="s">
         <v>196</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="B4" s="34">
-        <v>3</v>
-      </c>
-      <c r="C4" s="34">
-        <v>35</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="34" t="s">
-        <v>198</v>
-      </c>
-      <c r="B5" s="34">
-        <v>30</v>
-      </c>
-      <c r="C5" s="34">
-        <v>300</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="34" t="s">
-        <v>200</v>
-      </c>
-      <c r="B6" s="34">
-        <v>300</v>
-      </c>
-      <c r="C6" s="34">
-        <v>3000</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="34" t="s">
-        <v>201</v>
-      </c>
-      <c r="B7" s="34">
-        <v>5</v>
-      </c>
-      <c r="C7" s="34">
-        <v>20</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="34" t="s">
-        <v>209</v>
-      </c>
-      <c r="B8" s="34">
-        <v>50</v>
-      </c>
-      <c r="C8" s="34">
-        <v>125</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="B9" s="34">
-        <v>1</v>
-      </c>
-      <c r="C9" s="34">
-        <v>10</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="34" t="s">
-        <v>203</v>
-      </c>
-      <c r="B10" s="34">
-        <v>30</v>
-      </c>
-      <c r="C10" s="34">
-        <v>60</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="34" t="s">
-        <v>204</v>
-      </c>
-      <c r="B11" s="34">
-        <v>2.5</v>
-      </c>
-      <c r="C11" s="34">
-        <v>15</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B12" s="34">
-        <v>20</v>
-      </c>
-      <c r="C12" s="34">
-        <v>70</v>
-      </c>
-      <c r="D12" s="34" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" s="34">
-        <v>10</v>
-      </c>
-      <c r="C13" s="34">
-        <v>40</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="B14" s="34">
-        <v>2</v>
-      </c>
-      <c r="C14" s="34">
-        <v>10</v>
-      </c>
-      <c r="D14" s="34" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="34" t="s">
-        <v>205</v>
-      </c>
-      <c r="B15" s="34">
-        <v>10</v>
-      </c>
-      <c r="C15" s="34">
-        <v>20</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -2150,7 +2123,7 @@
       <c r="D3" t="s">
         <v>137</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3">
         <v>100</v>
       </c>
     </row>
@@ -2214,7 +2187,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="7" t="s">
         <v>106</v>
       </c>
       <c r="B8" t="s">
@@ -2278,7 +2251,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="7" t="s">
         <v>126</v>
       </c>
       <c r="B13" t="s">
@@ -2289,7 +2262,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="7" t="s">
         <v>114</v>
       </c>
       <c r="B14" t="s">
@@ -2336,15 +2309,15 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>151</v>
+      <c r="B1" s="12" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" t="s">
         <v>85</v>
       </c>
       <c r="B2">
@@ -2356,10 +2329,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
@@ -2368,10 +2341,10 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4">
         <v>0.7</v>
       </c>
       <c r="C4">
@@ -2380,7 +2353,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="14" t="s">
         <v>76</v>
       </c>
       <c r="B5">
@@ -2392,7 +2365,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" t="s">
         <v>86</v>
       </c>
       <c r="B6">
@@ -2404,7 +2377,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="A7" t="s">
         <v>77</v>
       </c>
       <c r="B7">
@@ -2416,7 +2389,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="A8" t="s">
         <v>78</v>
       </c>
       <c r="B8">
@@ -2428,7 +2401,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" t="s">
         <v>79</v>
       </c>
       <c r="B9">
@@ -2440,7 +2413,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+      <c r="A10" t="s">
         <v>80</v>
       </c>
       <c r="B10">
@@ -2452,7 +2425,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+      <c r="A11" t="s">
         <v>81</v>
       </c>
       <c r="B11">
@@ -2464,8 +2437,8 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
-        <v>150</v>
+      <c r="A12" t="s">
+        <v>149</v>
       </c>
       <c r="B12">
         <v>1.42</v>
@@ -2476,7 +2449,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+      <c r="A13" t="s">
         <v>82</v>
       </c>
       <c r="B13">
@@ -2488,7 +2461,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
+      <c r="A14" t="s">
         <v>83</v>
       </c>
       <c r="B14">
@@ -2518,162 +2491,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" s="8">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" s="8">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B4" s="8">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B5" s="8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B6" s="8">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B7" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B8" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="B2" s="13">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="B3" s="13">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+      <c r="B10" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="B4" s="13">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="B5" s="13">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="B6" s="13">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
+      <c r="B11" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B12" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B13" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="B7" s="13">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="B8" s="13">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="B9" s="13">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="B10" s="13">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="B11" s="13">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
+      <c r="B14" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B15" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B16" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="B12" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="B13" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="B14" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="B15" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B16" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
+      <c r="B17" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B18" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="B18" s="13">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B19" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="B19" s="13">
-        <v>2</v>
-      </c>
-    </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="B20" s="13">
+      <c r="A20" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B20" s="8">
         <v>1</v>
       </c>
     </row>
@@ -2791,7 +2764,7 @@
       <c r="C3" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -2800,7 +2773,7 @@
       <c r="F3" t="s">
         <v>137</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3">
         <v>100</v>
       </c>
       <c r="H3">
@@ -2963,13 +2936,13 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="102" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="7" t="s">
         <v>106</v>
       </c>
       <c r="C8" t="s">
         <v>108</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E8">
@@ -3007,7 +2980,7 @@
       <c r="C9" t="s">
         <v>108</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>70</v>
       </c>
       <c r="E9">
@@ -3033,7 +3006,7 @@
       <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="9"/>
+      <c r="B10" s="5"/>
       <c r="D10">
         <v>12</v>
       </c>
@@ -3097,7 +3070,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="85" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="7" t="s">
         <v>126</v>
       </c>
       <c r="B13" t="s">
@@ -3112,7 +3085,7 @@
       <c r="E13" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="6">
         <v>0.1</v>
       </c>
       <c r="I13">
@@ -3126,7 +3099,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="7" t="s">
         <v>114</v>
       </c>
       <c r="C14" t="s">
@@ -3176,7 +3149,7 @@
       <c r="I15">
         <v>100</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="J15" t="s">
         <v>60</v>
       </c>
       <c r="K15" s="2" t="s">
@@ -3191,7 +3164,7 @@
     </row>
     <row r="16" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C16">
         <v>0.65</v>
@@ -3203,7 +3176,7 @@
         <v>1.5</v>
       </c>
       <c r="F16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G16">
         <v>150</v>
@@ -3214,43 +3187,43 @@
       <c r="I16">
         <v>100</v>
       </c>
-      <c r="N16" s="25" t="s">
-        <v>159</v>
+      <c r="N16" s="15" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>172</v>
-      </c>
-      <c r="N20" s="33" t="s">
-        <v>174</v>
+        <v>171</v>
+      </c>
+      <c r="N20" s="20" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>175</v>
-      </c>
-      <c r="N21" s="33" t="s">
-        <v>177</v>
+        <v>174</v>
+      </c>
+      <c r="N21" s="20" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3278,156 +3251,153 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="11" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="8">
         <v>6.3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="8">
         <v>8.5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="8">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="8">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="8">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="10" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="B10" s="13" t="s">
+      <c r="A10" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="B11" s="13" t="s">
+      <c r="A11" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="8" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="10" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B16" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="C15" s="6"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
+      <c r="C16" s="16"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B17" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="C16" s="26"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B18" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="C17" s="6"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B14">
